--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1685561.50204206</v>
+        <v>-1656278.076477372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10880437.29978707</v>
+        <v>10902356.31228506</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>144.3176825331606</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>232.0700023773431</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>315.3535549221802</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>10.32409223944172</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6283553771967</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>200.8471285231691</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,13 +905,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>9.08581611513619</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>68.77642494757832</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,7 +1108,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>105.7901723702887</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>221.3053114256417</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,13 +1142,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,7 +1196,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>267.7357237463023</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1294,19 +1294,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>79.5854046174441</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1348,16 +1348,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.67662790139482</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.1173292322618</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314843</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>3.423392126079628</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170469</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314843</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>28.46824604904393</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>209.9324537163646</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.3431845617044</v>
+        <v>73.01514676193455</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,25 +2081,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791314843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556932</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>63.51633119327845</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,10 +2767,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>144.4937753855477</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2810,7 +2810,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>26.41040541581631</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>5.990622819018423</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3035,7 +3035,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.436997393288</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934044</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277816</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169449</v>
       </c>
       <c r="U41" t="n">
         <v>240.3943693174059</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>669.6070460538953</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>523.8316091517128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4331,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1100.152336198746</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X2" t="n">
-        <v>1100.152336198746</v>
+        <v>352.4826129674469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1095.906616538803</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4386,46 +4386,46 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N3" t="n">
+        <v>319.8519551513677</v>
+      </c>
+      <c r="O3" t="n">
+        <v>739.9048540962709</v>
+      </c>
+      <c r="P3" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.9570914377655</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C4" t="n">
-        <v>386.9570914377655</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>221.0790986392882</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>221.0790986392882</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>44.37204460104442</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,19 +4486,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1463.215394345875</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1184.78239359898</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>897.8268854694109</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>625.8004810557024</v>
       </c>
       <c r="X4" t="n">
-        <v>614.3767621236573</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.9570914377655</v>
+        <v>380.4087263891149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>978.6562886337281</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>540.5138158171513</v>
       </c>
       <c r="D5" t="n">
-        <v>386.2295709184322</v>
+        <v>508.6444350319999</v>
       </c>
       <c r="E5" t="n">
-        <v>356.4952301171314</v>
+        <v>478.9100942306991</v>
       </c>
       <c r="F5" t="n">
-        <v>332.6682045667432</v>
+        <v>51.04266463990688</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>51.04266463990688</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.04266463990688</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>562.6504997812823</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210988</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640693</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599287</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352344</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536181</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.57466240922</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1968.352359726237</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1605.735409660063</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1200.879955071096</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1185.777895690811</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1181.532176030869</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083442</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>429.4587135897352</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.1279908671568</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8041211489747</v>
+        <v>451.5662793503817</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8041211489747</v>
+        <v>285.6882865519044</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>285.6882865519044</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>285.6882865519044</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>120.0970115777321</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>275.9722931853701</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>694.1821749533311</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1153.666042134244</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1595.924845291889</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2015.59409451767</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488012</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352344</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2531.293763352344</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2372.052394650341</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2126.172948228796</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1847.739947481901</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>1560.784439352332</v>
       </c>
       <c r="W7" t="n">
-        <v>711.6628811189632</v>
+        <v>1288.758034938623</v>
       </c>
       <c r="X7" t="n">
-        <v>604.8041211489747</v>
+        <v>1043.366280272036</v>
       </c>
       <c r="Y7" t="n">
-        <v>604.8041211489747</v>
+        <v>815.9466095861439</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>855.2769502042993</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>450.4214956153326</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1883.24064273606</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.4167823767687</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>597.8550708599936</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>597.8550708599936</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E10" t="n">
-        <v>428.0970671107308</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>992.2117929153466</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>992.2117929153466</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>992.2117929153466</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>962.2354010957558</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2217.256985197553</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1779.114512380976</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1343.20472755542</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>909.4299827137154</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5625531229231</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G11" t="n">
-        <v>80.16472174618694</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618694</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991048</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2341.808132766346</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M11" t="n">
-        <v>3292.583236597695</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.583236597695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.583236597695</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597695</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.08202255629</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309347</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309347</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4008.236087309347</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4008.236087309347</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3645.619137243173</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3240.763682654207</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2821.621219233517</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2413.335095533171</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206753</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.669302047629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299745</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066446</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>430.7867198728568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>430.7867198728568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>430.7867198728568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>430.7867198728568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>430.7867198728568</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.6585591637991</v>
+        <v>790.3368563937584</v>
       </c>
       <c r="C13" t="n">
-        <v>617.096847647024</v>
+        <v>617.7751448769833</v>
       </c>
       <c r="D13" t="n">
-        <v>451.2188548485467</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>281.460851099284</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>104.7537970610402</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820124</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955473</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2697.502628878946</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2538.261260176942</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2292.381813755398</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.270515778544</v>
+        <v>2013.948813008503</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.315007648974</v>
+        <v>1726.993304878933</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.288603235266</v>
+        <v>1454.966900465225</v>
       </c>
       <c r="X13" t="n">
-        <v>1208.896848568678</v>
+        <v>1209.575145798637</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.4771778827862</v>
+        <v>982.1554751127455</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,49 +5279,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321676</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>414.500552094942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K15" t="n">
-        <v>414.500552094942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L15" t="n">
-        <v>414.500552094942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M15" t="n">
-        <v>414.500552094942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>473.3149733731391</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>296.6079193348953</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>131.016644360723</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5452,34 +5452,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878946</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176942</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755398</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008503</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,13 +5501,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771594</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,46 +5516,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136697</v>
@@ -5589,25 +5589,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,61 +5738,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289577</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="O20" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P20" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5820,31 +5820,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2769.623329187108</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>3895.354312623555</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>4875.533979193861</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4875.533979193861</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.710185817961</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>926.148474301186</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>760.2704815027087</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>590.5124777534459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>413.8054237152021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>248.2141487410298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>108.3119744314043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2035.366634303136</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1763.340229889428</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1517.94847522284</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.528804536948</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,16 +6710,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6783,22 +6783,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6835,16 +6835,16 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
         <v>298.0235489799775</v>
@@ -6856,7 +6856,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6871,16 +6871,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6914,52 +6914,52 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.295274783585</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>1133.581508556538</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
         <v>4811.083017387605</v>
@@ -6974,13 +6974,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716792</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758678</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823638</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>925.3347848856847</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803008</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7187,13 +7187,13 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7202,22 +7202,22 @@
         <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673519</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7309,10 +7309,10 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
         <v>602.8283265716796</v>
@@ -7321,10 +7321,10 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581785</v>
@@ -7348,7 +7348,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461497</v>
@@ -7360,13 +7360,13 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
         <v>1677.257834230404</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206712</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390332</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961503</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835866</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197266</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581899</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>122.084990212129</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>122.084990212129</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1197.144956464988</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7555,31 +7555,31 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758679</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7631,67 +7631,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L44" t="n">
-        <v>1607.881357381595</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M44" t="n">
-        <v>2764.929192592146</v>
+        <v>1254.614538886369</v>
       </c>
       <c r="N44" t="n">
-        <v>3890.660176028593</v>
+        <v>2380.345522322816</v>
       </c>
       <c r="O44" t="n">
-        <v>4870.8398425989</v>
+        <v>3360.525188893122</v>
       </c>
       <c r="P44" t="n">
-        <v>4870.8398425989</v>
+        <v>4188.835063726518</v>
       </c>
       <c r="Q44" t="n">
-        <v>4870.8398425989</v>
+        <v>4735.333849685113</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M45" t="n">
-        <v>1296.291537768318</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.806465154627</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O45" t="n">
-        <v>1760.806465154627</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882665</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7979,25 +7979,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,31 +8052,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>517.1965904184196</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491802</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>227.6226443619426</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,19 +8693,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827336</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M11" t="n">
-        <v>960.3788927589385</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8942,13 +8942,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>315.3936483072348</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,16 +9410,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>404.4043982844114</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>127.539329130751</v>
       </c>
       <c r="Q23" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949884526</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>314.2706063049986</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>606.8284014422247</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>24.76594599627389</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11312,13 +11312,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>7.571051709084713</v>
+        <v>144.4457920260393</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>258.8884025713012</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>168.7368976657339</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>88.8497075411629</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>227.9192455477969</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>160.7958207444129</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>74.15349933190922</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>90.92021546249606</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.6500182959538</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.78272691405299</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>857016.5278213671</v>
+        <v>714102.4061466675</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>934839.6403885413</v>
+        <v>947670.784921334</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>934839.6403885413</v>
+        <v>949805.4428577421</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807147.4343649399</v>
+        <v>963119.6925083252</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>963119.6925083253</v>
+        <v>963119.6925083252</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36726.4320111609</v>
+        <v>30327.29223468182</v>
       </c>
       <c r="C2" t="n">
         <v>40211.04899178063</v>
@@ -26320,16 +26320,16 @@
         <v>40211.04899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>33115.17903382231</v>
+        <v>39514.31881030141</v>
       </c>
       <c r="F2" t="n">
-        <v>39514.31881030142</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="G2" t="n">
         <v>39514.31881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>39514.31881030141</v>
+        <v>39514.31881030142</v>
       </c>
       <c r="I2" t="n">
         <v>39514.3188103014</v>
@@ -26338,10 +26338,10 @@
         <v>39514.3188103014</v>
       </c>
       <c r="K2" t="n">
-        <v>39514.3188103014</v>
+        <v>39514.31881030141</v>
       </c>
       <c r="L2" t="n">
-        <v>40211.04899178067</v>
+        <v>40211.04899178068</v>
       </c>
       <c r="M2" t="n">
         <v>40211.04899178068</v>
@@ -26350,10 +26350,10 @@
         <v>40211.04899178063</v>
       </c>
       <c r="O2" t="n">
-        <v>40211.04899178069</v>
+        <v>40211.04899178068</v>
       </c>
       <c r="P2" t="n">
-        <v>40211.04899178064</v>
+        <v>40211.04899178066</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246254</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106391</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725248</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471801</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338233</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099789</v>
+        <v>21768.74196143499</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978839</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341138</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179442.2442618194</v>
+        <v>130743.3336435128</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277514</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68250.85363567094</v>
+        <v>81439.57146904271</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904271</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904274</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26442,22 +26442,22 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904287</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>86781.92928567607</v>
+        <v>86781.9292856761</v>
       </c>
       <c r="M4" t="n">
         <v>94325.77438500366</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500366</v>
+        <v>94325.77438500369</v>
       </c>
       <c r="O4" t="n">
-        <v>94325.77438500362</v>
+        <v>94325.77438500365</v>
       </c>
       <c r="P4" t="n">
-        <v>94325.77438500366</v>
+        <v>94325.77438500365</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295563</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710207</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
         <v>77718.2386057925</v>
@@ -26485,7 +26485,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.2386057925</v>
@@ -26494,22 +26494,22 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344331.9010475908</v>
+        <v>-302361.5887643332</v>
       </c>
       <c r="C6" t="n">
-        <v>-225174.7119873085</v>
+        <v>-270329.425731389</v>
       </c>
       <c r="D6" t="n">
-        <v>-225174.7119873085</v>
+        <v>-210040.8670305994</v>
       </c>
       <c r="E6" t="n">
-        <v>-268568.2332014755</v>
+        <v>-302021.8248249662</v>
       </c>
       <c r="F6" t="n">
-        <v>-198782.3969692519</v>
+        <v>-119666.7156039164</v>
       </c>
       <c r="G6" t="n">
-        <v>-119643.4912645339</v>
+        <v>-119666.7156039165</v>
       </c>
       <c r="H6" t="n">
-        <v>-119643.4912645339</v>
+        <v>-119666.7156039165</v>
       </c>
       <c r="I6" t="n">
-        <v>-119643.4912645339</v>
+        <v>-119666.7156039166</v>
       </c>
       <c r="J6" t="n">
-        <v>-230657.9566095242</v>
+        <v>-230681.1809489068</v>
       </c>
       <c r="K6" t="n">
-        <v>-119643.491264534</v>
+        <v>-173335.0426672989</v>
       </c>
       <c r="L6" t="n">
-        <v>-138642.6071031539</v>
+        <v>-147422.7807935911</v>
       </c>
       <c r="M6" t="n">
-        <v>-258988.7615171965</v>
+        <v>-267208.0408571646</v>
       </c>
       <c r="N6" t="n">
-        <v>-197279.5403927241</v>
+        <v>-129630.3401193128</v>
       </c>
       <c r="O6" t="n">
         <v>-129630.3401193127</v>
       </c>
       <c r="P6" t="n">
-        <v>-129630.3401193128</v>
+        <v>-129630.3401193127</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26805,7 +26805,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179818</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977083</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072323</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574084</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179818</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977083</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702102</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574084</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179818</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977083</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072323</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574084</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>289.4433655552502</v>
+        <v>174.8726455171097</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27540,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>153.6112699849889</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27588,7 +27588,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>11.79229658013259</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>221.1894462568895</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,13 +27625,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>388.2980369478325</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>69.7267276189509</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>137.147664749633</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>212.4557366627692</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,13 +27862,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,10 +27904,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>147.2153150401801</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.468846077638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-5.813970628973514e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-5.347439327062119e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28801,25 +28801,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.385632607492031e-12</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-8.671097134934406e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791302861</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874688</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,31 +34772,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>517.1965904184196</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491802</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>227.6226443619426</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827336</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M11" t="n">
-        <v>960.3788927589385</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645529</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>315.3936483072348</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165016</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,28 +35884,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,16 +36130,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>404.4043982844114</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>127.539329130751</v>
       </c>
       <c r="Q23" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949884526</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37078,10 +37078,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>314.2706063049986</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,16 +37160,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>606.8284014422247</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778283</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348444</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
         <v>438.6699343467889</v>
@@ -37476,7 +37476,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900414</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552542</v>
@@ -37555,16 +37555,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37713,10 +37713,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.1274021209015</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>24.76594599627389</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778284</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37944,13 +37944,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38029,16 +38029,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>7.571051709084713</v>
+        <v>144.4457920260393</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348442</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
